--- a/btssiosynthese.xlsx
+++ b/btssiosynthese.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\BTS\2023\Circulaires nationales\SIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nowa/Desktop/PortFolioNoaF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{798934E2-8E66-48C3-96D0-B04C84EB448D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{195D589D-F027-4D5C-8BAF-0E36D788F171}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8746E1-5703-4346-9395-780AB7CBD60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="57">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -162,9 +162,6 @@
     <t>15/09/24 au 15/09/24</t>
   </si>
   <si>
-    <t xml:space="preserve">Centralisation des logs </t>
-  </si>
-  <si>
     <t>10/09/24 au 10/09/24</t>
   </si>
   <si>
@@ -216,7 +213,22 @@
     <t>04/09/23 au 30/06/24</t>
   </si>
   <si>
-    <t xml:space="preserve">Récupération Mail et importation pièce jointe en base de données </t>
+    <t>Récupération Mail et importation pièce jointe en base de données JAVA</t>
+  </si>
+  <si>
+    <t>Ajout métadonnées SharePoint</t>
+  </si>
+  <si>
+    <t>15/04/24 au 20/04/24</t>
+  </si>
+  <si>
+    <t>Gestion des droits des créations des équipes dans Teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en Place d'un serveur WEB avec https et clé PKI </t>
+  </si>
+  <si>
+    <t>Centralisation des logs RSYSLOG</t>
   </si>
 </sst>
 </file>
@@ -226,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -283,11 +295,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -688,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -729,9 +736,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,15 +757,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -793,30 +821,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,97 +1133,97 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="43" width="11.42578125" customWidth="1"/>
-    <col min="44" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="70.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9" max="43" width="11.5" customWidth="1"/>
+    <col min="44" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1">
-      <c r="A2" s="24" t="s">
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="43"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="29"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1241,25 +1245,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="20" t="s">
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="31"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="20" t="s">
         <v>23</v>
       </c>
       <c r="I7"/>
@@ -1298,17 +1302,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1345,7 +1349,7 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -1353,19 +1357,19 @@
         <v>26</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I9"/>
@@ -1404,27 +1408,27 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="16"/>
+      <c r="C10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="15"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1461,29 +1465,29 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="C11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I11"/>
@@ -1522,27 +1526,27 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="16"/>
+      <c r="C12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="15"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1579,27 +1583,27 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="C13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I13"/>
@@ -1638,15 +1642,29 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1683,15 +1701,15 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1728,15 +1746,15 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1773,15 +1791,15 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1818,15 +1836,15 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1863,17 +1881,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A19" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A19" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1910,25 +1928,25 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="15"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1965,23 +1983,23 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I21"/>
@@ -2020,27 +2038,27 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="16"/>
+      <c r="H22" s="15"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2077,23 +2095,23 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I23"/>
@@ -2132,23 +2150,23 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="16"/>
+      <c r="H24" s="15"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2185,15 +2203,15 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2230,15 +2248,15 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2275,17 +2293,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A27" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A27" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2322,25 +2340,25 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I28"/>
@@ -2379,29 +2397,29 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I29"/>
@@ -2440,15 +2458,29 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2485,15 +2517,29 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="15"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2530,15 +2576,15 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2575,15 +2621,15 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2620,15 +2666,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2665,7 +2711,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="13.5">
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -2710,59 +2756,54 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1"/>
-    <row r="37" spans="1:43" customFormat="1"/>
-    <row r="38" spans="1:43" customFormat="1"/>
-    <row r="39" spans="1:43" customFormat="1"/>
-    <row r="40" spans="1:43" customFormat="1"/>
-    <row r="41" spans="1:43" customFormat="1"/>
-    <row r="42" spans="1:43" customFormat="1"/>
-    <row r="43" spans="1:43" customFormat="1"/>
-    <row r="44" spans="1:43" customFormat="1"/>
-    <row r="45" spans="1:43" customFormat="1"/>
-    <row r="46" spans="1:43" customFormat="1"/>
-    <row r="47" spans="1:43" customFormat="1"/>
-    <row r="48" spans="1:43" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
-    <row r="62" customFormat="1"/>
-    <row r="63" customFormat="1"/>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1"/>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
-    <row r="81" customFormat="1"/>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2770,6 +2811,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2780,26 +2826,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a8ce3911-0485-47af-ac12-9376d5ac774e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="79176ac7-4d0f-41bd-b62c-b934cfcedc14" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A2135F6BDEAAA479580229BE601C149" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="554828fc1c9d728f07ff9000b4f68594">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a8ce3911-0485-47af-ac12-9376d5ac774e" xmlns:ns3="79176ac7-4d0f-41bd-b62c-b934cfcedc14" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db23cae9ec1efa9ec99c90ad2e3f3fea" ns2:_="" ns3:_="">
     <xsd:import namespace="a8ce3911-0485-47af-ac12-9376d5ac774e"/>
@@ -3022,14 +3048,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a8ce3911-0485-47af-ac12-9376d5ac774e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="79176ac7-4d0f-41bd-b62c-b934cfcedc14" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B877387-EB45-4FFD-A13B-93089F73858D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10BE3336-B036-4491-AABF-4873428DD522}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a8ce3911-0485-47af-ac12-9376d5ac774e"/>
+    <ds:schemaRef ds:uri="79176ac7-4d0f-41bd-b62c-b934cfcedc14"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52D11651-6960-4F77-B7BD-918207C221AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52D11651-6960-4F77-B7BD-918207C221AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10BE3336-B036-4491-AABF-4873428DD522}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B877387-EB45-4FFD-A13B-93089F73858D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a8ce3911-0485-47af-ac12-9376d5ac774e"/>
+    <ds:schemaRef ds:uri="79176ac7-4d0f-41bd-b62c-b934cfcedc14"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/btssiosynthese.xlsx
+++ b/btssiosynthese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nowa/Desktop/PortFolioNoaF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8746E1-5703-4346-9395-780AB7CBD60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1172C241-3681-F844-9B2E-3F073CEC4A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$34</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -186,15 +186,9 @@
     <t>22/05/23 au 25/05/23</t>
   </si>
   <si>
-    <t xml:space="preserve">Insertion base de données sur site de l'entreprise + Affichage et configuration du site. </t>
-  </si>
-  <si>
     <t>25/05/23 au 01/05/23</t>
   </si>
   <si>
-    <t>Configuration et création machine virtuelle pour failles de sécurité d'un site + recherche outil pour administrer un serveur OVH.</t>
-  </si>
-  <si>
     <t>01/05/23 au 06/06/23</t>
   </si>
   <si>
@@ -229,6 +223,15 @@
   </si>
   <si>
     <t>Centralisation des logs RSYSLOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion base de données sur site de l'entreprise + Affichage formation du personnel et configuration du site. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration et création machine virtuelle pour failles de sécurité d'un site </t>
+  </si>
+  <si>
+    <t>PortFolio</t>
   </si>
 </sst>
 </file>
@@ -238,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -295,6 +298,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -691,11 +701,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -757,9 +768,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -784,48 +834,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1131,10 +1146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AQ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1147,56 +1162,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="28" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="29"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="42"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1208,22 +1223,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1246,8 +1261,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="19" t="s">
         <v>18</v>
       </c>
@@ -1303,16 +1318,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1350,7 +1365,7 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="43" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1359,19 +1374,13 @@
       <c r="C9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="H9" s="15"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1409,18 +1418,14 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="43" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
         <v>29</v>
       </c>
@@ -1466,7 +1471,7 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="43" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1475,21 +1480,13 @@
       <c r="C11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="H11" s="15"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1527,21 +1524,17 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>56</v>
+      <c r="A12" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
         <v>29</v>
@@ -1584,7 +1577,7 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="43" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1593,19 +1586,13 @@
       <c r="C13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="14"/>
-      <c r="G13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1643,8 +1630,8 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>55</v>
+      <c r="A14" s="43" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>36</v>
@@ -1652,9 +1639,7 @@
       <c r="C14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
         <v>29</v>
       </c>
@@ -1662,9 +1647,7 @@
       <c r="G14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="H14" s="15"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1704,7 +1687,6 @@
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -1836,15 +1818,17 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A18" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1881,17 +1865,25 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A19" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="15"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1929,14 +1921,14 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>38</v>
+      <c r="A20" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1984,24 +1976,26 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
-        <v>40</v>
+      <c r="A21" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="F21" s="14" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="H21" s="15"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2039,22 +2033,16 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
-        <v>42</v>
+      <c r="A22" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="14" t="s">
         <v>27</v>
       </c>
@@ -2096,24 +2084,22 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="F23" s="14"/>
       <c r="G23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="H23" s="15"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2151,21 +2137,13 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="G24" s="14"/>
       <c r="H24" s="15"/>
       <c r="I24"/>
       <c r="J24"/>
@@ -2248,15 +2226,17 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A26" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2293,17 +2273,23 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="35" t="s">
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="15"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2341,26 +2327,22 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="43" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="H28" s="15"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2398,30 +2380,22 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="C29" s="14"/>
       <c r="D29" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="H29" s="15"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2459,28 +2433,24 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="43" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14" t="s">
+      <c r="D30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="H30" s="15"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2518,28 +2488,20 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
-        <v>54</v>
+      <c r="A31" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="15"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2621,15 +2583,15 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="15"/>
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2666,15 +2628,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2711,51 +2673,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35"/>
-      <c r="AM35"/>
-      <c r="AN35"/>
-      <c r="AO35"/>
-      <c r="AP35"/>
-      <c r="AQ35"/>
-    </row>
+    <row r="35" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -2801,23 +2719,40 @@
     <row r="78" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="79" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="80" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:H5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" xr:uid="{74CF9AD4-8976-1A4B-BB55-480ADB865E19}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{DD615359-C2B9-AC48-B0AF-6B29432303AD}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{78F0DCB6-721A-C74D-B277-27D50981372C}"/>
+    <hyperlink ref="A12" r:id="rId4" xr:uid="{BCB0AB87-9801-574F-815D-7BAE4EA1406F}"/>
+    <hyperlink ref="A14" r:id="rId5" xr:uid="{F75C6A1F-54E4-9843-8EB0-77AC55D946B9}"/>
+    <hyperlink ref="A13" r:id="rId6" xr:uid="{C65A2A05-377B-DB41-87D5-500DB6969138}"/>
+    <hyperlink ref="A19" r:id="rId7" xr:uid="{FBA9ABEB-8F48-8941-BEE8-E04162709314}"/>
+    <hyperlink ref="A20" r:id="rId8" xr:uid="{173FADFE-C777-1A47-BAEC-A1AB090B6B33}"/>
+    <hyperlink ref="A21" r:id="rId9" xr:uid="{69A519ED-72A0-4A46-B79B-A769D6AF3193}"/>
+    <hyperlink ref="A22" r:id="rId10" xr:uid="{AD8F82E6-A005-094E-BD20-6055FE18FEDA}"/>
+    <hyperlink ref="A23" r:id="rId11" xr:uid="{EF3B2A19-4592-8C41-BE43-2E77408D137B}"/>
+    <hyperlink ref="A27" r:id="rId12" xr:uid="{9A6EA326-A935-F642-A54E-E032DE478281}"/>
+    <hyperlink ref="A28" r:id="rId13" xr:uid="{B51363D5-8AC4-C940-AB1E-D6160163CA5C}"/>
+    <hyperlink ref="A29" r:id="rId14" xr:uid="{D9D94A25-AFEF-AE41-9B09-BEB6B5BCB8E5}"/>
+    <hyperlink ref="A30" r:id="rId15" xr:uid="{32FF9259-C18E-9C40-8318-651F322E9ADC}"/>
+    <hyperlink ref="A31" r:id="rId16" xr:uid="{608FED85-3AB3-704C-A7A0-3B4E4A23D74F}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait"/>
@@ -2826,6 +2761,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A2135F6BDEAAA479580229BE601C149" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="554828fc1c9d728f07ff9000b4f68594">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a8ce3911-0485-47af-ac12-9376d5ac774e" xmlns:ns3="79176ac7-4d0f-41bd-b62c-b934cfcedc14" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db23cae9ec1efa9ec99c90ad2e3f3fea" ns2:_="" ns3:_="">
     <xsd:import namespace="a8ce3911-0485-47af-ac12-9376d5ac774e"/>
@@ -3048,15 +2992,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3069,6 +3004,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52D11651-6960-4F77-B7BD-918207C221AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10BE3336-B036-4491-AABF-4873428DD522}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3087,14 +3030,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52D11651-6960-4F77-B7BD-918207C221AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B877387-EB45-4FFD-A13B-93089F73858D}">
   <ds:schemaRefs>
